--- a/1112.xlsx
+++ b/1112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31875" windowHeight="17940"/>
+    <workbookView windowWidth="31875" windowHeight="17490"/>
   </bookViews>
   <sheets>
     <sheet name="1112" sheetId="1" r:id="rId1"/>
@@ -2916,81 +2916,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3020,8 +2953,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3029,6 +3000,36 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3043,19 +3044,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3080,19 +3080,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,43 +3122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,13 +3146,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3176,7 +3200,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,78 +3264,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3271,54 +3271,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3343,16 +3295,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3371,6 +3356,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3379,10 +3379,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3391,16 +3391,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3409,115 +3409,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3604,8 +3604,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>48895</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3622,7 +3622,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16594455" y="171450"/>
+          <a:off x="16594455" y="1771650"/>
           <a:ext cx="7381240" cy="6962775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -47381,11 +47381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:M938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -47439,7 +47439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:13">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -47485,7 +47485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:13">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -47531,7 +47531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:13">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -47577,7 +47577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:13">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -47623,7 +47623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:13">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -47669,7 +47669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:13">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -47715,7 +47715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:13">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -47761,7 +47761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:13">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -47807,7 +47807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:13">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -47853,7 +47853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:13">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -47899,7 +47899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:13">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -47945,7 +47945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:13">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -47991,7 +47991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:13">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -48037,7 +48037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:13">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -48083,7 +48083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:13">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -48129,7 +48129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:13">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -48175,7 +48175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:13">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -48221,7 +48221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:13">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -48267,7 +48267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:13">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -48313,7 +48313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:13">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -48359,7 +48359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:13">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -48405,7 +48405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:13">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -48451,7 +48451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:13">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -48497,7 +48497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:13">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:13">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -48589,7 +48589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:13">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -48635,7 +48635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:13">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -48681,7 +48681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:13">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -48727,7 +48727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:13">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -48773,7 +48773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:13">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -48819,7 +48819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:13">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -48865,7 +48865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:13">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -48911,7 +48911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:13">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -48957,7 +48957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:13">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -49003,7 +49003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:13">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -49049,7 +49049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:13">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -49095,7 +49095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:13">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -49141,7 +49141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:13">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -49187,7 +49187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:13">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -49233,7 +49233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:13">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -49325,7 +49325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:13">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -49371,7 +49371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:13">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:13">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -49463,7 +49463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:13">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -49509,7 +49509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:13">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -49555,7 +49555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:13">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -49601,7 +49601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:13">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -49647,7 +49647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:13">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -49693,7 +49693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:13">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -49739,7 +49739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:13">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -49785,7 +49785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:13">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -49831,7 +49831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:13">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -49877,7 +49877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:13">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -49923,7 +49923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:13">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -49969,7 +49969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:13">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:13">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -50061,7 +50061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:13">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -50107,7 +50107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:13">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -50153,7 +50153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:13">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -50199,7 +50199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:13">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -50291,7 +50291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:13">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -50337,7 +50337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:13">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -50383,7 +50383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:13">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -50429,7 +50429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:13">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -50475,7 +50475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:13">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -50521,7 +50521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:13">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -50567,7 +50567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:13">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -50613,7 +50613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:13">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -50659,7 +50659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:13">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -50705,7 +50705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:13">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -50797,7 +50797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:13">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -50843,7 +50843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:13">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -50889,7 +50889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:13">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -50935,7 +50935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:13">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -50981,7 +50981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:13">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -51027,7 +51027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:13">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -51073,7 +51073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:13">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -51119,7 +51119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:13">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -51165,7 +51165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:13">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -51211,7 +51211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:13">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -51257,7 +51257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:13">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -51303,7 +51303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:13">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -51349,7 +51349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:13">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -51395,7 +51395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:13">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -51441,7 +51441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:13">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -51487,7 +51487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:13">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -51533,7 +51533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:13">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -51579,7 +51579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:13">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -51671,7 +51671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:13">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -51717,7 +51717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:13">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -51763,7 +51763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:13">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -51809,7 +51809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:13">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -51855,7 +51855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:13">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -51901,7 +51901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:13">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -51947,7 +51947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:13">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -52039,7 +52039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:13">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -52085,7 +52085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:13">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -52223,7 +52223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:13">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -52407,7 +52407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:13">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -52453,7 +52453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:13">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -52499,7 +52499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:13">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -52545,7 +52545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:13">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -52591,7 +52591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:13">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -52637,7 +52637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:13">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -52683,7 +52683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:13">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -52729,7 +52729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:13">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -52775,7 +52775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:13">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -52821,7 +52821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:13">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -52867,7 +52867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:13">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -52959,7 +52959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:13">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -53097,7 +53097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:13">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -53189,7 +53189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:13">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -53281,7 +53281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:13">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -53373,7 +53373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:13">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -53419,7 +53419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:13">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -53603,7 +53603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:13">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -53695,7 +53695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:13">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -53879,7 +53879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:13">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -53925,7 +53925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:13">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -54017,7 +54017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:13">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -54063,7 +54063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:13">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -54201,7 +54201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:13">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -54293,7 +54293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:13">
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -54339,7 +54339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:13">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -54385,7 +54385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:13">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -54431,7 +54431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:13">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -54477,7 +54477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:13">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -54569,7 +54569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:13">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -54799,7 +54799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:13">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -54845,7 +54845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:13">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -54891,7 +54891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:13">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -54937,7 +54937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:13">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -55213,7 +55213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:13">
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -55259,7 +55259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:13">
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>183</v>
       </c>
@@ -55305,7 +55305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:13">
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -55489,7 +55489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:13">
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -55535,7 +55535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:13">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -55673,7 +55673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:13">
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -55719,7 +55719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:13">
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -56041,7 +56041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:13">
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -56087,7 +56087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:13">
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
         <v>201</v>
       </c>
@@ -56133,7 +56133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:13">
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -56317,7 +56317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:13">
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
         <v>206</v>
       </c>
@@ -56455,7 +56455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:13">
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -57053,7 +57053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:13">
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
         <v>222</v>
       </c>
@@ -57513,7 +57513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:13">
+    <row r="221" spans="1:13">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -57559,7 +57559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:13">
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
         <v>233</v>
       </c>
@@ -57651,7 +57651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:13">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>235</v>
       </c>
@@ -57835,7 +57835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:13">
+    <row r="228" spans="1:13">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -57881,7 +57881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:13">
+    <row r="229" spans="1:13">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -57927,7 +57927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:13">
+    <row r="230" spans="1:13">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -58065,7 +58065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:13">
+    <row r="233" spans="1:13">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -58157,7 +58157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:13">
+    <row r="235" spans="1:13">
       <c r="A235" t="s">
         <v>246</v>
       </c>
@@ -58203,7 +58203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:13">
+    <row r="236" spans="1:13">
       <c r="A236" t="s">
         <v>247</v>
       </c>
@@ -58249,7 +58249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:13">
+    <row r="237" spans="1:13">
       <c r="A237" t="s">
         <v>248</v>
       </c>
@@ -58295,7 +58295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:13">
+    <row r="238" spans="1:13">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -58341,7 +58341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:13">
+    <row r="239" spans="1:13">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -58387,7 +58387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:13">
+    <row r="240" spans="1:13">
       <c r="A240" t="s">
         <v>251</v>
       </c>
@@ -58571,7 +58571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:13">
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
         <v>255</v>
       </c>
@@ -58663,7 +58663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:13">
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
         <v>257</v>
       </c>
@@ -58709,7 +58709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:13">
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -58755,7 +58755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:13">
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -58939,7 +58939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:13">
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
         <v>263</v>
       </c>
@@ -59077,7 +59077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:13">
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>266</v>
       </c>
@@ -59169,7 +59169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:13">
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>268</v>
       </c>
@@ -59215,7 +59215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:13">
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -59261,7 +59261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:13">
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
         <v>270</v>
       </c>
@@ -59307,7 +59307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:13">
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -59353,7 +59353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:13">
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
         <v>272</v>
       </c>
@@ -59767,7 +59767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:13">
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
         <v>281</v>
       </c>
@@ -60595,7 +60595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:13">
+    <row r="288" spans="1:13">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -61147,7 +61147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:13">
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
         <v>311</v>
       </c>
@@ -61285,7 +61285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:13">
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -61561,7 +61561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:13">
+    <row r="309" spans="1:13">
       <c r="A309" t="s">
         <v>320</v>
       </c>
@@ -61791,7 +61791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:13">
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
         <v>325</v>
       </c>
@@ -61975,7 +61975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:13">
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
         <v>329</v>
       </c>
@@ -62067,7 +62067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:13">
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
         <v>331</v>
       </c>
@@ -62113,7 +62113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:13">
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
         <v>332</v>
       </c>
@@ -62389,7 +62389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:13">
+    <row r="327" spans="1:13">
       <c r="A327" t="s">
         <v>338</v>
       </c>
@@ -62527,7 +62527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:13">
+    <row r="330" spans="1:13">
       <c r="A330" t="s">
         <v>341</v>
       </c>
@@ -62941,7 +62941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:13">
+    <row r="339" spans="1:13">
       <c r="A339" t="s">
         <v>350</v>
       </c>
@@ -63079,7 +63079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:13">
+    <row r="342" spans="1:13">
       <c r="A342" t="s">
         <v>353</v>
       </c>
@@ -63125,7 +63125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:13">
+    <row r="343" spans="1:13">
       <c r="A343" t="s">
         <v>354</v>
       </c>
@@ -63263,7 +63263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:13">
+    <row r="346" spans="1:13">
       <c r="A346" t="s">
         <v>357</v>
       </c>
@@ -63309,7 +63309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:13">
+    <row r="347" spans="1:13">
       <c r="A347" t="s">
         <v>358</v>
       </c>
@@ -63355,7 +63355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:13">
+    <row r="348" spans="1:13">
       <c r="A348" t="s">
         <v>359</v>
       </c>
@@ -63953,7 +63953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:13">
+    <row r="361" spans="1:13">
       <c r="A361" t="s">
         <v>372</v>
       </c>
@@ -64045,7 +64045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:13">
+    <row r="363" spans="1:13">
       <c r="A363" t="s">
         <v>374</v>
       </c>
@@ -65379,7 +65379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:13">
+    <row r="392" spans="1:13">
       <c r="A392" t="s">
         <v>403</v>
       </c>
@@ -66391,7 +66391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:13">
+    <row r="414" spans="1:13">
       <c r="A414" t="s">
         <v>425</v>
       </c>
@@ -66483,7 +66483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:13">
+    <row r="416" spans="1:13">
       <c r="A416" t="s">
         <v>427</v>
       </c>
@@ -67771,7 +67771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:13">
+    <row r="444" spans="1:13">
       <c r="A444" t="s">
         <v>455</v>
       </c>
@@ -68783,7 +68783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:13">
+    <row r="466" spans="1:13">
       <c r="A466" t="s">
         <v>477</v>
       </c>
@@ -68967,7 +68967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:13">
+    <row r="470" spans="1:13">
       <c r="A470" t="s">
         <v>481</v>
       </c>
@@ -69151,7 +69151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:13">
+    <row r="474" spans="1:13">
       <c r="A474" t="s">
         <v>485</v>
       </c>
@@ -69243,7 +69243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:13">
+    <row r="476" spans="1:13">
       <c r="A476" t="s">
         <v>487</v>
       </c>
@@ -70899,7 +70899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:13">
+    <row r="512" spans="1:13">
       <c r="A512" t="s">
         <v>523</v>
       </c>
@@ -70945,7 +70945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:13">
+    <row r="513" spans="1:13">
       <c r="A513" t="s">
         <v>524</v>
       </c>
@@ -71129,7 +71129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:13">
+    <row r="517" spans="1:13">
       <c r="A517" t="s">
         <v>528</v>
       </c>
@@ -72555,7 +72555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:13">
+    <row r="548" spans="1:13">
       <c r="A548" t="s">
         <v>559</v>
       </c>
@@ -74809,7 +74809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:13">
+    <row r="597" spans="1:13">
       <c r="A597" t="s">
         <v>608</v>
       </c>
@@ -74947,7 +74947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:13">
+    <row r="600" spans="1:13">
       <c r="A600" t="s">
         <v>611</v>
       </c>
@@ -74993,7 +74993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:13">
+    <row r="601" spans="1:13">
       <c r="A601" t="s">
         <v>612</v>
       </c>
@@ -76971,7 +76971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:13">
+    <row r="644" spans="1:13">
       <c r="A644" t="s">
         <v>655</v>
       </c>
@@ -79271,7 +79271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="1:13">
+    <row r="694" spans="1:13">
       <c r="A694" t="s">
         <v>705</v>
       </c>
@@ -80053,7 +80053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" hidden="1" spans="1:13">
+    <row r="711" spans="1:13">
       <c r="A711" t="s">
         <v>722</v>
       </c>
@@ -81939,7 +81939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="1:13">
+    <row r="752" spans="1:13">
       <c r="A752" t="s">
         <v>763</v>
       </c>
@@ -86907,7 +86907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" hidden="1" spans="1:13">
+    <row r="860" spans="1:13">
       <c r="A860" t="s">
         <v>871</v>
       </c>
@@ -87045,7 +87045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" hidden="1" spans="1:13">
+    <row r="863" spans="1:13">
       <c r="A863" t="s">
         <v>874</v>
       </c>
@@ -87827,7 +87827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="1:13">
+    <row r="880" spans="1:13">
       <c r="A880" t="s">
         <v>891</v>
       </c>
@@ -88517,7 +88517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" hidden="1" spans="1:13">
+    <row r="895" spans="1:13">
       <c r="A895" t="s">
         <v>906</v>
       </c>
@@ -90495,7 +90495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" hidden="1" spans="1:13">
+    <row r="938" spans="1:13">
       <c r="A938" t="s">
         <v>949</v>
       </c>
@@ -90543,11 +90543,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M938">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="equal" val="3"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
